--- a/EFG_laser计算111.xlsx
+++ b/EFG_laser计算111.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NPC\PCITest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\NPC\PCITest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>相位值（正弦拟合的相位值+180）</t>
   </si>
   <si>
-    <t>测量结果中的R1值（原子面和晶片表面交线相对于零位的偏移量）</t>
-  </si>
-  <si>
     <t>LaserOffset</t>
   </si>
   <si>
@@ -738,6 +735,10 @@
   </si>
   <si>
     <t>phase1=R+yx-PHASE+270-LaserOffset</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量结果中的R1值（原子面和晶片表面交线相对于零位的偏移量）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -986,11 +987,11 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,7 +1066,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>266701</xdr:colOff>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1117,7 +1118,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>230256</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -1221,7 +1222,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>230257</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1325,7 +1326,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>373131</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -1377,7 +1378,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>87382</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>100</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1481,7 +1482,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>287407</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>120</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -1529,14 +1530,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>626110</xdr:colOff>
+      <xdr:colOff>402479</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
@@ -1555,8 +1556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11602720" y="354330"/>
-          <a:ext cx="5143500" cy="9144000"/>
+          <a:off x="12112348" y="336522"/>
+          <a:ext cx="5435131" cy="9257886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,16 +1568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>70430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>408416</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>86996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1593,8 +1594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11161395" y="86995"/>
-          <a:ext cx="5143500" cy="9144000"/>
+          <a:off x="17576276" y="1130604"/>
+          <a:ext cx="5476792" cy="9235109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2051,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2312,11 +2313,11 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O15" si="4">SIN(RADIANS(H4))</f>
+        <f t="shared" ref="O4:O14" si="4">SIN(RADIANS(H4))</f>
         <v>-0.64338836594552984</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P15" si="5">COS(RADIANS(H4))</f>
+        <f t="shared" ref="P4:P14" si="5">COS(RADIANS(H4))</f>
         <v>0.76553994707392048</v>
       </c>
       <c r="Q4" s="2">
@@ -2726,7 +2727,7 @@
         <v>302</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>INT(C6/10000)*3600+INT(MOD(C6,10000)/100)*60+MOD(C6,100)</f>
         <v>182</v>
       </c>
       <c r="E6">
@@ -6516,8 +6517,8 @@
       <c r="E30">
         <v>102.23509014372</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>208</v>
+      <c r="H30" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="2:59" x14ac:dyDescent="0.15">
@@ -6579,56 +6580,56 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s">
-        <v>58</v>
+      <c r="C39" s="26" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
         <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
         <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
         <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
         <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
         <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -6648,191 +6649,191 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
         <v>73</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
         <v>78</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
         <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H81" s="18"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
         <v>88</v>
-      </c>
-      <c r="B92" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" t="s">
         <v>93</v>
-      </c>
-      <c r="B103" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" t="s">
         <v>95</v>
-      </c>
-      <c r="B109" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
         <v>97</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>98</v>
-      </c>
-      <c r="C110" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
         <v>100</v>
-      </c>
-      <c r="C111" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" t="s">
         <v>102</v>
-      </c>
-      <c r="C112" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" t="s">
         <v>104</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>105</v>
-      </c>
-      <c r="C114" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" t="s">
         <v>107</v>
-      </c>
-      <c r="C115" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -6840,18 +6841,18 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
@@ -7088,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7106,7 +7107,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1">
         <v>-1</v>
@@ -7118,20 +7119,20 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1">
         <f>4/3*(B1*B1+B1*C1+C1*C1)+D1*D1/H1/H1</f>
         <v>16.77175558884927</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1">
         <v>1.0999699999999999</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1">
         <v>4.9029999999999996</v>
@@ -7139,7 +7140,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4">
         <f>B1/SQRT(F1)</f>
@@ -7164,7 +7165,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1">
         <v>-1</v>
@@ -7176,14 +7177,14 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <f>4/3*(B4*B4+B4*C4+C4*C4)+D4*D4/H4/H4</f>
         <v>10.159824695057326</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4">
         <f>H1</f>
@@ -7192,7 +7193,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <f>B4/SQRT(F4)</f>
@@ -7221,19 +7222,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>120</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
       </c>
       <c r="J7">
         <v>0.66604384172888298</v>
@@ -7272,12 +7273,12 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11">
         <f>B8+B9/60+B10/3600</f>
@@ -7324,7 +7325,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <f>SIN(B12)</f>
@@ -7353,7 +7354,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <f>COS(B12)</f>
@@ -7393,7 +7394,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7416,7 +7417,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17">
         <f>B45*D45*(1-B14)+C45*B13</f>
@@ -7442,7 +7443,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7465,10 +7466,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
         <v>130</v>
-      </c>
-      <c r="B19" t="s">
-        <v>131</v>
       </c>
       <c r="E19">
         <v>340441</v>
@@ -7482,13 +7483,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
         <v>132</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>133</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
       </c>
       <c r="E20">
         <v>340629</v>
@@ -7502,7 +7503,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21">
         <f>C17</f>
@@ -7527,24 +7528,24 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -7561,72 +7562,72 @@
         <v>0.55977957932391353</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27">
         <f>B25*B21+C21*C25+D21*D25</f>
         <v>2.7755575615628914E-17</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
         <v>138</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>139</v>
-      </c>
-      <c r="E29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="4">
         <f>C2*D25-C25*D2</f>
@@ -7647,7 +7648,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35">
         <f>B34/E34</f>
@@ -7668,40 +7669,40 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
         <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <f>C5*D25-D5*C25</f>
@@ -7720,12 +7721,12 @@
         <v>0.30388095690775352</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <f>B39/E39</f>
@@ -7744,37 +7745,37 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
         <v>95</v>
-      </c>
-      <c r="H40" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
         <v>97</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>98</v>
-      </c>
-      <c r="I41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
         <v>100</v>
-      </c>
-      <c r="I42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43">
         <f>B35*B40+C35*C40+D35*D40</f>
@@ -7789,15 +7790,15 @@
         <v>153.4300202089654</v>
       </c>
       <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
         <v>102</v>
-      </c>
-      <c r="I43" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="4">
         <f>C14</f>
@@ -7815,32 +7816,32 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" t="s">
         <v>104</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>105</v>
-      </c>
-      <c r="I45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
       </c>
       <c r="H46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" t="s">
         <v>107</v>
-      </c>
-      <c r="I46" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47">
         <f>(B34*B45+C34*C45+D34*D45)/E34/E45</f>
@@ -7855,7 +7856,7 @@
         <v>163.28838537406796</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -7863,7 +7864,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B49">
         <f>B40*B45+C40*C45+D40*D45</f>
@@ -7882,17 +7883,17 @@
         <v>99.85836516510247</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <f>RADIANS(C51)</f>
@@ -7911,7 +7912,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" s="3">
         <f>C52-90</f>
@@ -7923,7 +7924,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2">
         <v>95.936000000000007</v>
@@ -7931,7 +7932,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54">
         <f>B53-D47+C54</f>
@@ -7943,7 +7944,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <f>B52-B54</f>
@@ -7956,7 +7957,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56">
         <f>TAN(B51)*COS(C55)</f>
@@ -7977,7 +7978,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57">
         <f>TAN(B51)*SIN(C55)</f>
@@ -7998,7 +7999,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D58">
         <f>B11-D56</f>
@@ -8019,7 +8020,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59">
         <f>C11-D57</f>
@@ -8048,20 +8049,20 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="E62" s="27"/>
+      <c r="F62" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26" t="s">
+      <c r="G62" s="27"/>
+      <c r="H62" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" s="26"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63">
@@ -8171,23 +8172,23 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26" t="s">
+      <c r="G70" s="27"/>
+      <c r="H70" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="I70" s="26"/>
+      <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
@@ -8256,7 +8257,7 @@
     <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <f>RADIANS(B8+B9/60+B10/3600)</f>
@@ -8283,7 +8284,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <f>-COS(B91)*SIN(C91)</f>
@@ -8326,7 +8327,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
@@ -8348,7 +8349,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J97">
         <v>0.15289349632947799</v>
@@ -8370,10 +8371,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -8400,12 +8401,12 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B103">
         <f>C2*D92-C92*D2</f>
@@ -8426,7 +8427,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104">
         <f>B103/F103</f>
@@ -8447,12 +8448,12 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <f>C5*D92-D5*C92</f>
@@ -8473,7 +8474,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107">
         <f>B106/F106</f>
@@ -8494,12 +8495,12 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B110">
         <f>B104*B107+C104*C107+D104*D107</f>
@@ -8523,7 +8524,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112">
         <f>COS(C91)</f>
@@ -8539,7 +8540,7 @@
     </row>
     <row r="114" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114" s="1">
         <v>801136.45</v>
@@ -8547,7 +8548,7 @@
     </row>
     <row r="115" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B115">
         <f>B104*B112+C104*C112+D104*D112</f>
@@ -8577,7 +8578,7 @@
     </row>
     <row r="117" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E117" s="1">
         <v>2863834.5</v>
@@ -8585,7 +8586,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <f>B112*B107+C112*C107+D112*D107</f>
@@ -8609,7 +8610,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119">
         <f>C118-C115</f>
@@ -8622,7 +8623,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
@@ -8632,7 +8633,7 @@
     </row>
     <row r="123" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B123" s="1">
         <f>RADIANS(D123+C123/2)</f>
@@ -8655,7 +8656,7 @@
     </row>
     <row r="124" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B124" s="1">
         <f>RADIANS(D124+C124/2)</f>
@@ -8670,7 +8671,7 @@
     </row>
     <row r="125" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" ref="B125:B132" si="3">RADIANS(C125)</f>
@@ -8708,7 +8709,7 @@
     </row>
     <row r="128" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128" s="7">
         <f t="shared" si="3"/>
@@ -8738,7 +8739,7 @@
     </row>
     <row r="129" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B129" s="7">
         <f t="shared" si="3"/>
@@ -8766,7 +8767,7 @@
     </row>
     <row r="130" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B130" s="7">
         <f t="shared" si="3"/>
@@ -8783,7 +8784,7 @@
     </row>
     <row r="131" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="7">
         <f t="shared" si="3"/>
@@ -8796,7 +8797,7 @@
     </row>
     <row r="132" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" s="7">
         <f t="shared" si="3"/>
@@ -8807,7 +8808,7 @@
         <v>302</v>
       </c>
       <c r="H132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -8879,7 +8880,7 @@
         <v>0.72473698966477396</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E138">
         <f>COS(F138)*COS(F138)</f>
@@ -8894,7 +8895,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B140">
         <v>0.90492169266149003</v>
@@ -8931,7 +8932,7 @@
     </row>
     <row r="142" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B142" s="7">
         <f>RADIANS(E142)</f>
@@ -8963,7 +8964,7 @@
     </row>
     <row r="143" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B143" s="1">
         <f>D144</f>
@@ -8997,7 +8998,7 @@
     </row>
     <row r="144" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B144" s="1">
         <f>C154</f>
@@ -9089,25 +9090,25 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="E152" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H152" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E152" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H152" s="5" t="s">
+      <c r="I152" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
@@ -9188,7 +9189,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -9205,7 +9206,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B166">
         <f>B5*COS(B142)-B2*COS(B143)</f>
@@ -9226,7 +9227,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167">
         <f>C5*COS(B142)-C2*COS(B143)</f>
@@ -9235,7 +9236,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B168">
         <f>SUMSQ(B5*D2-B2*D5,D2*C5-D5*C2,B5*C2-B2*C5)</f>
@@ -9248,7 +9249,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169">
         <f>-2*(B166*(B5*D2-B2*D5)+B167*(D2*C5-C2*D5))</f>
@@ -9265,7 +9266,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170">
         <f>B166*B166+B167*B167-SUMSQ(B5*C2-B2*C5)</f>
@@ -9274,7 +9275,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B171">
         <f>B169*B169-4*B168*B170</f>
@@ -9283,7 +9284,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B172">
         <f>-B169/2/B168</f>
@@ -9308,15 +9309,15 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B174">
         <f>(B2*B2+C2*C2)*COS(C172)*COS(C172)</f>
@@ -9331,7 +9332,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B175">
         <f>2*(COS(B142)-D2*SIN(C172))*B2*COS(C172)</f>
@@ -9340,7 +9341,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B176">
         <f>(COS(B142)-D2*SIN(C172))*(COS(B142)-D2*SIN(C172))-C2*C2*COS(C172)*COS(C172)</f>
@@ -9349,7 +9350,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177">
         <f>B175*B175-4*B174*B176</f>
@@ -9358,7 +9359,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B178">
         <f>(-B175+SQRT(B177))/2/B174</f>
@@ -9383,7 +9384,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B179">
         <f>(-B175-SQRT(B177))/2/B174</f>
@@ -9426,7 +9427,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188">
         <f>TAN(C91)</f>
@@ -9457,7 +9458,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190">
         <f>(B167-(D2*C5-C2*D5)*B172)</f>
@@ -9466,7 +9467,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191">
         <f>B166-(B5*D2-B2*D5)*B172</f>
@@ -9475,7 +9476,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192">
         <f>(D2*C5-C2*D5)*B172</f>
@@ -9488,7 +9489,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193">
         <f>(B5*C2-B2*C5)*COS(C172)*COS(C188)</f>
@@ -9497,7 +9498,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194">
         <f>(B5*C2-B2*C5)*COS(C172)*SIN(C188)</f>
@@ -9506,7 +9507,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <f>B194/B193</f>
@@ -9515,7 +9516,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197">
         <f>(B5*C2-B2*C5)*COS(C172)</f>
@@ -9524,7 +9525,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B198">
         <f>B191/B197</f>
@@ -9549,7 +9550,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <f>(B5*C2-B2*C5)*COS(C172)</f>
@@ -9558,7 +9559,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <f>B167/B199-B192/B199</f>
